--- a/Pin layout.xlsx
+++ b/Pin layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken's Desktop\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MorrisK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB22ECDD-1312-432A-BB5F-C9D7832D372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3C749-EEB8-4F85-91C3-16B990C6FCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{38E0ECE2-DF47-4CB1-8F9A-E043D42ADF40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E0ECE2-DF47-4CB1-8F9A-E043D42ADF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Board</t>
   </si>
@@ -200,25 +198,55 @@
     <t>DAC</t>
   </si>
   <si>
-    <t>PWM0:2</t>
-  </si>
-  <si>
-    <t>PWM0:1</t>
-  </si>
-  <si>
-    <t>PWM0:0</t>
-  </si>
-  <si>
     <t>LED0</t>
   </si>
   <si>
-    <t>Pin Layout v1</t>
-  </si>
-  <si>
     <t>GPS RX</t>
   </si>
   <si>
     <t>GPS TX</t>
+  </si>
+  <si>
+    <t>HeadLights</t>
+  </si>
+  <si>
+    <t>Flood Lights</t>
+  </si>
+  <si>
+    <t>Tail Lights</t>
+  </si>
+  <si>
+    <t>LT Turn Lights</t>
+  </si>
+  <si>
+    <t>RT Turn Lights</t>
+  </si>
+  <si>
+    <t>Aux Lights 1</t>
+  </si>
+  <si>
+    <t>Aux Lights 2</t>
+  </si>
+  <si>
+    <t>Aux Lights 3</t>
+  </si>
+  <si>
+    <t>RC in 1</t>
+  </si>
+  <si>
+    <t>RC in 2</t>
+  </si>
+  <si>
+    <t>RC in 3</t>
+  </si>
+  <si>
+    <t>RC in 4</t>
+  </si>
+  <si>
+    <t>Module LED</t>
+  </si>
+  <si>
+    <t>Pin Layout v1.1</t>
   </si>
 </sst>
 </file>
@@ -248,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +666,14 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,13 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,29 +1013,31 @@
   <dimension ref="D5:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="H5" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="8" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
@@ -1088,11 +1125,11 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="44" t="s">
-        <v>61</v>
+      <c r="O13" s="38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
@@ -1109,22 +1146,22 @@
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="43" t="s">
+      <c r="N14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="44" t="s">
-        <v>60</v>
+      <c r="O14" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="22" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1165,12 +1202,15 @@
       <c r="N17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="7:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="43"/>
+      <c r="Q17" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
@@ -1189,35 +1229,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H19" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="2"/>
       <c r="N19" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="5"/>
       <c r="N20" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F21" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="33" t="s">
         <v>51</v>
       </c>
@@ -1225,9 +1271,9 @@
         <v>29</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="5"/>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1235,8 +1281,14 @@
       <c r="O21" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F22" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="G22" s="33" t="s">
         <v>52</v>
       </c>
@@ -1244,22 +1296,28 @@
         <v>30</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="5"/>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F23" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="5"/>
       <c r="N23" s="23" t="s">
         <v>5</v>
@@ -1267,8 +1325,14 @@
       <c r="O23" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F24" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="33" t="s">
         <v>53</v>
       </c>
@@ -1276,62 +1340,65 @@
         <v>32</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="5"/>
       <c r="N24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P24" s="35"/>
       <c r="Q24" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="7:18" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="5"/>
       <c r="N25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="39"/>
+      <c r="P25" s="43"/>
       <c r="Q25" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="5"/>
       <c r="N26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="40" t="s">
+      <c r="O26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="36" t="s">
-        <v>57</v>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="R26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="7:18" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1339,9 +1406,9 @@
         <v>34</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="5"/>
       <c r="N27" s="9" t="s">
         <v>9</v>
@@ -1350,7 +1417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="7:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="8" t="s">
         <v>38</v>
       </c>
@@ -1358,9 +1425,9 @@
         <v>35</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="7"/>
       <c r="N28" s="10" t="s">
         <v>10</v>
